--- a/case_studies/data/case_study_meta_data.xlsx
+++ b/case_studies/data/case_study_meta_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/cc_resilience/climate-resilient-fisheries/case_studies/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762610CD-EBF3-0041-AF49-FD011ED2370F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91018BB9-1C92-454E-ACA9-50529191A4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6680" yWindow="3260" windowWidth="28040" windowHeight="17440" xr2:uid="{64AC2A7C-3AC6-264D-A117-FA5C5DCDB163}"/>
   </bookViews>
@@ -592,7 +592,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -734,7 +734,7 @@
         <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
